--- a/natmiOut/OldD2/LR-pairs_lrc2p/Cxcl10-Sdc4.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Cxcl10-Sdc4.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.0823185220859</v>
+        <v>15.6308825</v>
       </c>
       <c r="H2">
-        <v>15.0823185220859</v>
+        <v>31.261765</v>
       </c>
       <c r="I2">
-        <v>0.08800719045314888</v>
+        <v>0.08061597743527853</v>
       </c>
       <c r="J2">
-        <v>0.08800719045314888</v>
+        <v>0.05642173194834236</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.209166423063072</v>
+        <v>0.451749</v>
       </c>
       <c r="N2">
-        <v>0.209166423063072</v>
+        <v>0.903498</v>
       </c>
       <c r="O2">
-        <v>0.00182646371230881</v>
+        <v>0.003821260830374857</v>
       </c>
       <c r="P2">
-        <v>0.00182646371230881</v>
+        <v>0.00287943137621811</v>
       </c>
       <c r="Q2">
-        <v>3.154714616762627</v>
+        <v>7.0612355384925</v>
       </c>
       <c r="R2">
-        <v>3.154714616762627</v>
+        <v>28.24494215397</v>
       </c>
       <c r="S2">
-        <v>0.0001607419397849268</v>
+        <v>0.0003080546768758132</v>
       </c>
       <c r="T2">
-        <v>0.0001607419397849268</v>
+        <v>0.0001624625052726247</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.0823185220859</v>
+        <v>15.6308825</v>
       </c>
       <c r="H3">
-        <v>15.0823185220859</v>
+        <v>31.261765</v>
       </c>
       <c r="I3">
-        <v>0.08800719045314888</v>
+        <v>0.08061597743527853</v>
       </c>
       <c r="J3">
-        <v>0.08800719045314888</v>
+        <v>0.05642173194834236</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>27.9188300643417</v>
+        <v>29.738655</v>
       </c>
       <c r="N3">
-        <v>27.9188300643417</v>
+        <v>89.21596500000001</v>
       </c>
       <c r="O3">
-        <v>0.243790228163246</v>
+        <v>0.2515537555136401</v>
       </c>
       <c r="P3">
-        <v>0.243790228163246</v>
+        <v>0.2843296264967678</v>
       </c>
       <c r="Q3">
-        <v>421.0806877943895</v>
+        <v>464.8414220130376</v>
       </c>
       <c r="R3">
-        <v>421.0806877943895</v>
+        <v>2789.048532078225</v>
       </c>
       <c r="S3">
-        <v>0.02145529304057941</v>
+        <v>0.02027925187824718</v>
       </c>
       <c r="T3">
-        <v>0.02145529304057941</v>
+        <v>0.01604236997117293</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.0823185220859</v>
+        <v>15.6308825</v>
       </c>
       <c r="H4">
-        <v>15.0823185220859</v>
+        <v>31.261765</v>
       </c>
       <c r="I4">
-        <v>0.08800719045314888</v>
+        <v>0.08061597743527853</v>
       </c>
       <c r="J4">
-        <v>0.08800719045314888</v>
+        <v>0.05642173194834236</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.8443971128282</v>
+        <v>22.95118433333333</v>
       </c>
       <c r="N4">
-        <v>22.8443971128282</v>
+        <v>68.85355300000001</v>
       </c>
       <c r="O4">
-        <v>0.199479733626134</v>
+        <v>0.194139802641909</v>
       </c>
       <c r="P4">
-        <v>0.199479733626134</v>
+        <v>0.2194349969477482</v>
       </c>
       <c r="Q4">
-        <v>344.5464737006944</v>
+        <v>358.7472655501742</v>
       </c>
       <c r="R4">
-        <v>344.5464737006944</v>
+        <v>2152.483593301045</v>
       </c>
       <c r="S4">
-        <v>0.01755565090877858</v>
+        <v>0.01565076994906956</v>
       </c>
       <c r="T4">
-        <v>0.01755565090877858</v>
+        <v>0.01238090257787117</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.0823185220859</v>
+        <v>15.6308825</v>
       </c>
       <c r="H5">
-        <v>15.0823185220859</v>
+        <v>31.261765</v>
       </c>
       <c r="I5">
-        <v>0.08800719045314888</v>
+        <v>0.08061597743527853</v>
       </c>
       <c r="J5">
-        <v>0.08800719045314888</v>
+        <v>0.05642173194834236</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>22.8604766766159</v>
+        <v>23.37486266666667</v>
       </c>
       <c r="N5">
-        <v>22.8604766766159</v>
+        <v>70.124588</v>
       </c>
       <c r="O5">
-        <v>0.1996201421072751</v>
+        <v>0.1977236189200749</v>
       </c>
       <c r="P5">
-        <v>0.1996201421072751</v>
+        <v>0.2234857619292659</v>
       </c>
       <c r="Q5">
-        <v>344.7889908034367</v>
+        <v>365.3697317963034</v>
       </c>
       <c r="R5">
-        <v>344.7889908034367</v>
+        <v>2192.21839077782</v>
       </c>
       <c r="S5">
-        <v>0.0175680078647196</v>
+        <v>0.01593968280128237</v>
       </c>
       <c r="T5">
-        <v>0.0175680078647196</v>
+        <v>0.0126094537538441</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.0823185220859</v>
+        <v>15.6308825</v>
       </c>
       <c r="H6">
-        <v>15.0823185220859</v>
+        <v>31.261765</v>
       </c>
       <c r="I6">
-        <v>0.08800719045314888</v>
+        <v>0.08061597743527853</v>
       </c>
       <c r="J6">
-        <v>0.08800719045314888</v>
+        <v>0.05642173194834236</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.14058632203313</v>
+        <v>1.272071333333334</v>
       </c>
       <c r="N6">
-        <v>1.14058632203313</v>
+        <v>3.816214</v>
       </c>
       <c r="O6">
-        <v>0.00995972249007243</v>
+        <v>0.01076021498555478</v>
       </c>
       <c r="P6">
-        <v>0.00995972249007243</v>
+        <v>0.01216220326991628</v>
       </c>
       <c r="Q6">
-        <v>17.20268621083811</v>
+        <v>19.88359754295167</v>
       </c>
       <c r="R6">
-        <v>17.20268621083811</v>
+        <v>119.30158525771</v>
       </c>
       <c r="S6">
-        <v>0.0008765271940443145</v>
+        <v>0.0008674452484742299</v>
       </c>
       <c r="T6">
-        <v>0.0008765271940443145</v>
+        <v>0.0006862125727964692</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>15.0823185220859</v>
+        <v>15.6308825</v>
       </c>
       <c r="H7">
-        <v>15.0823185220859</v>
+        <v>31.261765</v>
       </c>
       <c r="I7">
-        <v>0.08800719045314888</v>
+        <v>0.08061597743527853</v>
       </c>
       <c r="J7">
-        <v>0.08800719045314888</v>
+        <v>0.05642173194834236</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>39.5464332042761</v>
+        <v>40.4313585</v>
       </c>
       <c r="N7">
-        <v>39.5464332042761</v>
+        <v>80.862717</v>
       </c>
       <c r="O7">
-        <v>0.3453237099009637</v>
+        <v>0.3420013471084464</v>
       </c>
       <c r="P7">
-        <v>0.3453237099009637</v>
+        <v>0.2577079799800835</v>
       </c>
       <c r="Q7">
-        <v>596.4519019992863</v>
+        <v>631.9778140288763</v>
       </c>
       <c r="R7">
-        <v>596.4519019992863</v>
+        <v>2527.911256115505</v>
       </c>
       <c r="S7">
-        <v>0.03039096950524204</v>
+        <v>0.02757077288132937</v>
       </c>
       <c r="T7">
-        <v>0.03039096950524204</v>
+        <v>0.01454033056738505</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>21.5694593948792</v>
+        <v>25.268178</v>
       </c>
       <c r="H8">
-        <v>21.5694593948792</v>
+        <v>75.80453399999999</v>
       </c>
       <c r="I8">
-        <v>0.1258604582681935</v>
+        <v>0.130320144590595</v>
       </c>
       <c r="J8">
-        <v>0.1258604582681935</v>
+        <v>0.1368132316846795</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.209166423063072</v>
+        <v>0.451749</v>
       </c>
       <c r="N8">
-        <v>0.209166423063072</v>
+        <v>0.903498</v>
       </c>
       <c r="O8">
-        <v>0.00182646371230881</v>
+        <v>0.003821260830374857</v>
       </c>
       <c r="P8">
-        <v>0.00182646371230881</v>
+        <v>0.00287943137621811</v>
       </c>
       <c r="Q8">
-        <v>4.511606669031056</v>
+        <v>11.414874143322</v>
       </c>
       <c r="R8">
-        <v>4.511606669031056</v>
+        <v>68.48924485993199</v>
       </c>
       <c r="S8">
-        <v>0.0002298795598414128</v>
+        <v>0.0004979872639328285</v>
       </c>
       <c r="T8">
-        <v>0.0002298795598414128</v>
+        <v>0.0003939443119946637</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>21.5694593948792</v>
+        <v>25.268178</v>
       </c>
       <c r="H9">
-        <v>21.5694593948792</v>
+        <v>75.80453399999999</v>
       </c>
       <c r="I9">
-        <v>0.1258604582681935</v>
+        <v>0.130320144590595</v>
       </c>
       <c r="J9">
-        <v>0.1258604582681935</v>
+        <v>0.1368132316846795</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>27.9188300643417</v>
+        <v>29.738655</v>
       </c>
       <c r="N9">
-        <v>27.9188300643417</v>
+        <v>89.21596500000001</v>
       </c>
       <c r="O9">
-        <v>0.243790228163246</v>
+        <v>0.2515537555136401</v>
       </c>
       <c r="P9">
-        <v>0.243790228163246</v>
+        <v>0.2843296264967678</v>
       </c>
       <c r="Q9">
-        <v>602.194071425351</v>
+        <v>751.44162802059</v>
       </c>
       <c r="R9">
-        <v>602.194071425351</v>
+        <v>6762.97465218531</v>
       </c>
       <c r="S9">
-        <v>0.0306835498379336</v>
+        <v>0.03278252179084476</v>
       </c>
       <c r="T9">
-        <v>0.0306835498379336</v>
+        <v>0.03890005506472068</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>21.5694593948792</v>
+        <v>25.268178</v>
       </c>
       <c r="H10">
-        <v>21.5694593948792</v>
+        <v>75.80453399999999</v>
       </c>
       <c r="I10">
-        <v>0.1258604582681935</v>
+        <v>0.130320144590595</v>
       </c>
       <c r="J10">
-        <v>0.1258604582681935</v>
+        <v>0.1368132316846795</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>22.8443971128282</v>
+        <v>22.95118433333333</v>
       </c>
       <c r="N10">
-        <v>22.8443971128282</v>
+        <v>68.85355300000001</v>
       </c>
       <c r="O10">
-        <v>0.199479733626134</v>
+        <v>0.194139802641909</v>
       </c>
       <c r="P10">
-        <v>0.199479733626134</v>
+        <v>0.2194349969477482</v>
       </c>
       <c r="Q10">
-        <v>492.7412959256435</v>
+        <v>579.9346110454779</v>
       </c>
       <c r="R10">
-        <v>492.7412959256435</v>
+        <v>5219.411499409302</v>
       </c>
       <c r="S10">
-        <v>0.0251066106894024</v>
+        <v>0.02530032715108316</v>
       </c>
       <c r="T10">
-        <v>0.0251066106894024</v>
+        <v>0.0300216110771392</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>21.5694593948792</v>
+        <v>25.268178</v>
       </c>
       <c r="H11">
-        <v>21.5694593948792</v>
+        <v>75.80453399999999</v>
       </c>
       <c r="I11">
-        <v>0.1258604582681935</v>
+        <v>0.130320144590595</v>
       </c>
       <c r="J11">
-        <v>0.1258604582681935</v>
+        <v>0.1368132316846795</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>22.8604766766159</v>
+        <v>23.37486266666667</v>
       </c>
       <c r="N11">
-        <v>22.8604766766159</v>
+        <v>70.124588</v>
       </c>
       <c r="O11">
-        <v>0.1996201421072751</v>
+        <v>0.1977236189200749</v>
       </c>
       <c r="P11">
-        <v>0.1996201421072751</v>
+        <v>0.2234857619292659</v>
       </c>
       <c r="Q11">
-        <v>493.0881234238497</v>
+        <v>590.6401905868879</v>
       </c>
       <c r="R11">
-        <v>493.0881234238497</v>
+        <v>5315.761715281991</v>
       </c>
       <c r="S11">
-        <v>0.02512428256518355</v>
+        <v>0.02576737060663987</v>
       </c>
       <c r="T11">
-        <v>0.02512428256518355</v>
+        <v>0.03057580932505578</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>21.5694593948792</v>
+        <v>25.268178</v>
       </c>
       <c r="H12">
-        <v>21.5694593948792</v>
+        <v>75.80453399999999</v>
       </c>
       <c r="I12">
-        <v>0.1258604582681935</v>
+        <v>0.130320144590595</v>
       </c>
       <c r="J12">
-        <v>0.1258604582681935</v>
+        <v>0.1368132316846795</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.14058632203313</v>
+        <v>1.272071333333334</v>
       </c>
       <c r="N12">
-        <v>1.14058632203313</v>
+        <v>3.816214</v>
       </c>
       <c r="O12">
-        <v>0.00995972249007243</v>
+        <v>0.01076021498555478</v>
       </c>
       <c r="P12">
-        <v>0.00995972249007243</v>
+        <v>0.01216220326991628</v>
       </c>
       <c r="Q12">
-        <v>24.60183035944821</v>
+        <v>32.142924879364</v>
       </c>
       <c r="R12">
-        <v>24.60183035944821</v>
+        <v>289.286323914276</v>
       </c>
       <c r="S12">
-        <v>0.00125353523682455</v>
+        <v>0.001402272772743386</v>
       </c>
       <c r="T12">
-        <v>0.00125353523682455</v>
+        <v>0.001663950333763222</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>21.5694593948792</v>
+        <v>25.268178</v>
       </c>
       <c r="H13">
-        <v>21.5694593948792</v>
+        <v>75.80453399999999</v>
       </c>
       <c r="I13">
-        <v>0.1258604582681935</v>
+        <v>0.130320144590595</v>
       </c>
       <c r="J13">
-        <v>0.1258604582681935</v>
+        <v>0.1368132316846795</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>39.5464332042761</v>
+        <v>40.4313585</v>
       </c>
       <c r="N13">
-        <v>39.5464332042761</v>
+        <v>80.862717</v>
       </c>
       <c r="O13">
-        <v>0.3453237099009637</v>
+        <v>0.3420013471084464</v>
       </c>
       <c r="P13">
-        <v>0.3453237099009637</v>
+        <v>0.2577079799800835</v>
       </c>
       <c r="Q13">
-        <v>852.9951852119358</v>
+        <v>1021.626763359813</v>
       </c>
       <c r="R13">
-        <v>852.9951852119358</v>
+        <v>6129.760580158877</v>
       </c>
       <c r="S13">
-        <v>0.04346260037900801</v>
+        <v>0.044569665005351</v>
       </c>
       <c r="T13">
-        <v>0.04346260037900801</v>
+        <v>0.03525786157200592</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>31.1566465844127</v>
+        <v>38.99944133333333</v>
       </c>
       <c r="H14">
-        <v>31.1566465844127</v>
+        <v>116.998324</v>
       </c>
       <c r="I14">
-        <v>0.1818028790348499</v>
+        <v>0.2011388725183283</v>
       </c>
       <c r="J14">
-        <v>0.1818028790348499</v>
+        <v>0.2111604407215431</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.209166423063072</v>
+        <v>0.451749</v>
       </c>
       <c r="N14">
-        <v>0.209166423063072</v>
+        <v>0.903498</v>
       </c>
       <c r="O14">
-        <v>0.00182646371230881</v>
+        <v>0.003821260830374857</v>
       </c>
       <c r="P14">
-        <v>0.00182646371230881</v>
+        <v>0.00287943137621811</v>
       </c>
       <c r="Q14">
-        <v>6.516924320701885</v>
+        <v>17.617958622892</v>
       </c>
       <c r="R14">
-        <v>6.516924320701885</v>
+        <v>105.707751737352</v>
       </c>
       <c r="S14">
-        <v>0.0003320563613504215</v>
+        <v>0.0007686040950200497</v>
       </c>
       <c r="T14">
-        <v>0.0003320563613504215</v>
+        <v>0.0006080219984296554</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>31.1566465844127</v>
+        <v>38.99944133333333</v>
       </c>
       <c r="H15">
-        <v>31.1566465844127</v>
+        <v>116.998324</v>
       </c>
       <c r="I15">
-        <v>0.1818028790348499</v>
+        <v>0.2011388725183283</v>
       </c>
       <c r="J15">
-        <v>0.1818028790348499</v>
+        <v>0.2111604407215431</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>27.9188300643417</v>
+        <v>29.738655</v>
       </c>
       <c r="N15">
-        <v>27.9188300643417</v>
+        <v>89.21596500000001</v>
       </c>
       <c r="O15">
-        <v>0.243790228163246</v>
+        <v>0.2515537555136401</v>
       </c>
       <c r="P15">
-        <v>0.243790228163246</v>
+        <v>0.2843296264967678</v>
       </c>
       <c r="Q15">
-        <v>869.8571213649706</v>
+        <v>1159.79093100474</v>
       </c>
       <c r="R15">
-        <v>869.8571213649706</v>
+        <v>10438.11837904266</v>
       </c>
       <c r="S15">
-        <v>0.04432176536064106</v>
+        <v>0.05059723876176478</v>
       </c>
       <c r="T15">
-        <v>0.04432176536064106</v>
+        <v>0.06003916924124922</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>31.1566465844127</v>
+        <v>38.99944133333333</v>
       </c>
       <c r="H16">
-        <v>31.1566465844127</v>
+        <v>116.998324</v>
       </c>
       <c r="I16">
-        <v>0.1818028790348499</v>
+        <v>0.2011388725183283</v>
       </c>
       <c r="J16">
-        <v>0.1818028790348499</v>
+        <v>0.2111604407215431</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>22.8443971128282</v>
+        <v>22.95118433333333</v>
       </c>
       <c r="N16">
-        <v>22.8443971128282</v>
+        <v>68.85355300000001</v>
       </c>
       <c r="O16">
-        <v>0.199479733626134</v>
+        <v>0.194139802641909</v>
       </c>
       <c r="P16">
-        <v>0.199479733626134</v>
+        <v>0.2194349969477482</v>
       </c>
       <c r="Q16">
-        <v>711.7548072783661</v>
+        <v>895.0833669383524</v>
       </c>
       <c r="R16">
-        <v>711.7548072783661</v>
+        <v>8055.750302445173</v>
       </c>
       <c r="S16">
-        <v>0.03626598988233613</v>
+        <v>0.03904906101432434</v>
       </c>
       <c r="T16">
-        <v>0.03626598988233613</v>
+        <v>0.04633599066521696</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>31.1566465844127</v>
+        <v>38.99944133333333</v>
       </c>
       <c r="H17">
-        <v>31.1566465844127</v>
+        <v>116.998324</v>
       </c>
       <c r="I17">
-        <v>0.1818028790348499</v>
+        <v>0.2011388725183283</v>
       </c>
       <c r="J17">
-        <v>0.1818028790348499</v>
+        <v>0.2111604407215431</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>22.8604766766159</v>
+        <v>23.37486266666667</v>
       </c>
       <c r="N17">
-        <v>22.8604766766159</v>
+        <v>70.124588</v>
       </c>
       <c r="O17">
-        <v>0.1996201421072751</v>
+        <v>0.1977236189200749</v>
       </c>
       <c r="P17">
-        <v>0.1996201421072751</v>
+        <v>0.2234857619292659</v>
       </c>
       <c r="Q17">
-        <v>712.255792564531</v>
+        <v>911.6065852433902</v>
       </c>
       <c r="R17">
-        <v>712.255792564531</v>
+        <v>8204.459267190512</v>
       </c>
       <c r="S17">
-        <v>0.03629151654844847</v>
+        <v>0.03976990577982747</v>
       </c>
       <c r="T17">
-        <v>0.03629151654844847</v>
+        <v>0.04719135198397365</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>31.1566465844127</v>
+        <v>38.99944133333333</v>
       </c>
       <c r="H18">
-        <v>31.1566465844127</v>
+        <v>116.998324</v>
       </c>
       <c r="I18">
-        <v>0.1818028790348499</v>
+        <v>0.2011388725183283</v>
       </c>
       <c r="J18">
-        <v>0.1818028790348499</v>
+        <v>0.2111604407215431</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.14058632203313</v>
+        <v>1.272071333333334</v>
       </c>
       <c r="N18">
-        <v>1.14058632203313</v>
+        <v>3.816214</v>
       </c>
       <c r="O18">
-        <v>0.00995972249007243</v>
+        <v>0.01076021498555478</v>
       </c>
       <c r="P18">
-        <v>0.00995972249007243</v>
+        <v>0.01216220326991628</v>
       </c>
       <c r="Q18">
-        <v>35.53684493460137</v>
+        <v>49.61007133614845</v>
       </c>
       <c r="R18">
-        <v>35.53684493460137</v>
+        <v>446.4906420253361</v>
       </c>
       <c r="S18">
-        <v>0.001810706223083312</v>
+        <v>0.002164297510249308</v>
       </c>
       <c r="T18">
-        <v>0.001810706223083312</v>
+        <v>0.002568176202620514</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>31.1566465844127</v>
+        <v>38.99944133333333</v>
       </c>
       <c r="H19">
-        <v>31.1566465844127</v>
+        <v>116.998324</v>
       </c>
       <c r="I19">
-        <v>0.1818028790348499</v>
+        <v>0.2011388725183283</v>
       </c>
       <c r="J19">
-        <v>0.1818028790348499</v>
+        <v>0.2111604407215431</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>39.5464332042761</v>
+        <v>40.4313585</v>
       </c>
       <c r="N19">
-        <v>39.5464332042761</v>
+        <v>80.862717</v>
       </c>
       <c r="O19">
-        <v>0.3453237099009637</v>
+        <v>0.3420013471084464</v>
       </c>
       <c r="P19">
-        <v>0.3453237099009637</v>
+        <v>0.2577079799800835</v>
       </c>
       <c r="Q19">
-        <v>1232.134243019714</v>
+        <v>1576.800393847718</v>
       </c>
       <c r="R19">
-        <v>1232.134243019714</v>
+        <v>9460.802363086308</v>
       </c>
       <c r="S19">
-        <v>0.0627808446589905</v>
+        <v>0.06878976535714233</v>
       </c>
       <c r="T19">
-        <v>0.0627808446589905</v>
+        <v>0.05441773063005304</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>74.761731568435</v>
+        <v>78.37889633333333</v>
       </c>
       <c r="H20">
-        <v>74.761731568435</v>
+        <v>235.136689</v>
       </c>
       <c r="I20">
-        <v>0.436243932861888</v>
+        <v>0.4042376582518635</v>
       </c>
       <c r="J20">
-        <v>0.436243932861888</v>
+        <v>0.4243784456181134</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.209166423063072</v>
+        <v>0.451749</v>
       </c>
       <c r="N20">
-        <v>0.209166423063072</v>
+        <v>0.903498</v>
       </c>
       <c r="O20">
-        <v>0.00182646371230881</v>
+        <v>0.003821260830374857</v>
       </c>
       <c r="P20">
-        <v>0.00182646371230881</v>
+        <v>0.00287943137621811</v>
       </c>
       <c r="Q20">
-        <v>15.6376439741711</v>
+        <v>35.407588039687</v>
       </c>
       <c r="R20">
-        <v>15.6376439741711</v>
+        <v>212.445528238122</v>
       </c>
       <c r="S20">
-        <v>0.0007967837130871193</v>
+        <v>0.001544697529640304</v>
       </c>
       <c r="T20">
-        <v>0.0007967837130871193</v>
+        <v>0.001221968611703466</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>74.761731568435</v>
+        <v>78.37889633333333</v>
       </c>
       <c r="H21">
-        <v>74.761731568435</v>
+        <v>235.136689</v>
       </c>
       <c r="I21">
-        <v>0.436243932861888</v>
+        <v>0.4042376582518635</v>
       </c>
       <c r="J21">
-        <v>0.436243932861888</v>
+        <v>0.4243784456181134</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>27.9188300643417</v>
+        <v>29.738655</v>
       </c>
       <c r="N21">
-        <v>27.9188300643417</v>
+        <v>89.21596500000001</v>
       </c>
       <c r="O21">
-        <v>0.243790228163246</v>
+        <v>0.2515537555136401</v>
       </c>
       <c r="P21">
-        <v>0.243790228163246</v>
+        <v>0.2843296264967678</v>
       </c>
       <c r="Q21">
-        <v>2087.260078975067</v>
+        <v>2330.882957337765</v>
       </c>
       <c r="R21">
-        <v>2087.260078975067</v>
+        <v>20977.94661603989</v>
       </c>
       <c r="S21">
-        <v>0.1063520079272314</v>
+        <v>0.1016875010532957</v>
       </c>
       <c r="T21">
-        <v>0.1063520079272314</v>
+        <v>0.1206633649358771</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>74.761731568435</v>
+        <v>78.37889633333333</v>
       </c>
       <c r="H22">
-        <v>74.761731568435</v>
+        <v>235.136689</v>
       </c>
       <c r="I22">
-        <v>0.436243932861888</v>
+        <v>0.4042376582518635</v>
       </c>
       <c r="J22">
-        <v>0.436243932861888</v>
+        <v>0.4243784456181134</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>22.8443971128282</v>
+        <v>22.95118433333333</v>
       </c>
       <c r="N22">
-        <v>22.8443971128282</v>
+        <v>68.85355300000001</v>
       </c>
       <c r="O22">
-        <v>0.199479733626134</v>
+        <v>0.194139802641909</v>
       </c>
       <c r="P22">
-        <v>0.199479733626134</v>
+        <v>0.2194349969477482</v>
       </c>
       <c r="Q22">
-        <v>1707.886684791993</v>
+        <v>1798.888497589557</v>
       </c>
       <c r="R22">
-        <v>1707.886684791993</v>
+        <v>16189.99647830602</v>
       </c>
       <c r="S22">
-        <v>0.08702182352330652</v>
+        <v>0.07847861919344425</v>
       </c>
       <c r="T22">
-        <v>0.08702182352330652</v>
+        <v>0.09312348291890081</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>74.761731568435</v>
+        <v>78.37889633333333</v>
       </c>
       <c r="H23">
-        <v>74.761731568435</v>
+        <v>235.136689</v>
       </c>
       <c r="I23">
-        <v>0.436243932861888</v>
+        <v>0.4042376582518635</v>
       </c>
       <c r="J23">
-        <v>0.436243932861888</v>
+        <v>0.4243784456181134</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>22.8604766766159</v>
+        <v>23.37486266666667</v>
       </c>
       <c r="N23">
-        <v>22.8604766766159</v>
+        <v>70.124588</v>
       </c>
       <c r="O23">
-        <v>0.1996201421072751</v>
+        <v>0.1977236189200749</v>
       </c>
       <c r="P23">
-        <v>0.1996201421072751</v>
+        <v>0.2234857619292659</v>
       </c>
       <c r="Q23">
-        <v>1709.088820823627</v>
+        <v>1832.09593775657</v>
       </c>
       <c r="R23">
-        <v>1709.088820823627</v>
+        <v>16488.86343980913</v>
       </c>
       <c r="S23">
-        <v>0.08708307587132665</v>
+        <v>0.07992733269333495</v>
       </c>
       <c r="T23">
-        <v>0.08708307587132665</v>
+        <v>0.09484254026532163</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>74.761731568435</v>
+        <v>78.37889633333333</v>
       </c>
       <c r="H24">
-        <v>74.761731568435</v>
+        <v>235.136689</v>
       </c>
       <c r="I24">
-        <v>0.436243932861888</v>
+        <v>0.4042376582518635</v>
       </c>
       <c r="J24">
-        <v>0.436243932861888</v>
+        <v>0.4243784456181134</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.14058632203313</v>
+        <v>1.272071333333334</v>
       </c>
       <c r="N24">
-        <v>1.14058632203313</v>
+        <v>3.816214</v>
       </c>
       <c r="O24">
-        <v>0.00995972249007243</v>
+        <v>0.01076021498555478</v>
       </c>
       <c r="P24">
-        <v>0.00995972249007243</v>
+        <v>0.01216220326991628</v>
       </c>
       <c r="Q24">
-        <v>85.27220843846942</v>
+        <v>99.70354716393845</v>
       </c>
       <c r="R24">
-        <v>85.27220843846942</v>
+        <v>897.331924475446</v>
       </c>
       <c r="S24">
-        <v>0.004344868509282193</v>
+        <v>0.004349684108047274</v>
       </c>
       <c r="T24">
-        <v>0.004344868509282193</v>
+        <v>0.005161376918978606</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>74.761731568435</v>
+        <v>78.37889633333333</v>
       </c>
       <c r="H25">
-        <v>74.761731568435</v>
+        <v>235.136689</v>
       </c>
       <c r="I25">
-        <v>0.436243932861888</v>
+        <v>0.4042376582518635</v>
       </c>
       <c r="J25">
-        <v>0.436243932861888</v>
+        <v>0.4243784456181134</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>39.5464332042761</v>
+        <v>40.4313585</v>
       </c>
       <c r="N25">
-        <v>39.5464332042761</v>
+        <v>80.862717</v>
       </c>
       <c r="O25">
-        <v>0.3453237099009637</v>
+        <v>0.3420013471084464</v>
       </c>
       <c r="P25">
-        <v>0.3453237099009637</v>
+        <v>0.2577079799800835</v>
       </c>
       <c r="Q25">
-        <v>2956.559823707134</v>
+        <v>3168.965256487335</v>
       </c>
       <c r="R25">
-        <v>2956.559823707134</v>
+        <v>19013.79153892401</v>
       </c>
       <c r="S25">
-        <v>0.1506453733176541</v>
+        <v>0.1382498236741011</v>
       </c>
       <c r="T25">
-        <v>0.1506453733176541</v>
+        <v>0.1093657119673317</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>17.6140412473364</v>
+        <v>23.64038533333333</v>
       </c>
       <c r="H26">
-        <v>17.6140412473364</v>
+        <v>70.921156</v>
       </c>
       <c r="I26">
-        <v>0.1027801050902063</v>
+        <v>0.1219248350560686</v>
       </c>
       <c r="J26">
-        <v>0.1027801050902063</v>
+        <v>0.1279996332036458</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.209166423063072</v>
+        <v>0.451749</v>
       </c>
       <c r="N26">
-        <v>0.209166423063072</v>
+        <v>0.903498</v>
       </c>
       <c r="O26">
-        <v>0.00182646371230881</v>
+        <v>0.003821260830374857</v>
       </c>
       <c r="P26">
-        <v>0.00182646371230881</v>
+        <v>0.00287943137621811</v>
       </c>
       <c r="Q26">
-        <v>3.684266003390766</v>
+        <v>10.679520433948</v>
       </c>
       <c r="R26">
-        <v>3.684266003390766</v>
+        <v>64.077122603688</v>
       </c>
       <c r="S26">
-        <v>0.0001877241322945479</v>
+        <v>0.0004659065964496702</v>
       </c>
       <c r="T26">
-        <v>0.0001877241322945479</v>
+        <v>0.0003685661599909871</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>17.6140412473364</v>
+        <v>23.64038533333333</v>
       </c>
       <c r="H27">
-        <v>17.6140412473364</v>
+        <v>70.921156</v>
       </c>
       <c r="I27">
-        <v>0.1027801050902063</v>
+        <v>0.1219248350560686</v>
       </c>
       <c r="J27">
-        <v>0.1027801050902063</v>
+        <v>0.1279996332036458</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>27.9188300643417</v>
+        <v>29.738655</v>
       </c>
       <c r="N27">
-        <v>27.9188300643417</v>
+        <v>89.21596500000001</v>
       </c>
       <c r="O27">
-        <v>0.243790228163246</v>
+        <v>0.2515537555136401</v>
       </c>
       <c r="P27">
-        <v>0.243790228163246</v>
+        <v>0.2843296264967678</v>
       </c>
       <c r="Q27">
-        <v>491.7634243306903</v>
+        <v>703.0332634950601</v>
       </c>
       <c r="R27">
-        <v>491.7634243306903</v>
+        <v>6327.29937145554</v>
       </c>
       <c r="S27">
-        <v>0.0250567852705838</v>
+        <v>0.03067065014873518</v>
       </c>
       <c r="T27">
-        <v>0.0250567852705838</v>
+        <v>0.03639408790051589</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>17.6140412473364</v>
+        <v>23.64038533333333</v>
       </c>
       <c r="H28">
-        <v>17.6140412473364</v>
+        <v>70.921156</v>
       </c>
       <c r="I28">
-        <v>0.1027801050902063</v>
+        <v>0.1219248350560686</v>
       </c>
       <c r="J28">
-        <v>0.1027801050902063</v>
+        <v>0.1279996332036458</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>22.8443971128282</v>
+        <v>22.95118433333333</v>
       </c>
       <c r="N28">
-        <v>22.8443971128282</v>
+        <v>68.85355300000001</v>
       </c>
       <c r="O28">
-        <v>0.199479733626134</v>
+        <v>0.194139802641909</v>
       </c>
       <c r="P28">
-        <v>0.199479733626134</v>
+        <v>0.2194349969477482</v>
       </c>
       <c r="Q28">
-        <v>402.3821530158885</v>
+        <v>542.5748414963631</v>
       </c>
       <c r="R28">
-        <v>402.3821530158885</v>
+        <v>4883.173573467268</v>
       </c>
       <c r="S28">
-        <v>0.02050254798546042</v>
+        <v>0.02367046341493247</v>
       </c>
       <c r="T28">
-        <v>0.02050254798546042</v>
+        <v>0.0280875991213549</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>17.6140412473364</v>
+        <v>23.64038533333333</v>
       </c>
       <c r="H29">
-        <v>17.6140412473364</v>
+        <v>70.921156</v>
       </c>
       <c r="I29">
-        <v>0.1027801050902063</v>
+        <v>0.1219248350560686</v>
       </c>
       <c r="J29">
-        <v>0.1027801050902063</v>
+        <v>0.1279996332036458</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>22.8604766766159</v>
+        <v>23.37486266666667</v>
       </c>
       <c r="N29">
-        <v>22.8604766766159</v>
+        <v>70.124588</v>
       </c>
       <c r="O29">
-        <v>0.1996201421072751</v>
+        <v>0.1977236189200749</v>
       </c>
       <c r="P29">
-        <v>0.1996201421072751</v>
+        <v>0.2234857619292659</v>
       </c>
       <c r="Q29">
-        <v>402.6653791156842</v>
+        <v>552.5907605537476</v>
       </c>
       <c r="R29">
-        <v>402.6653791156842</v>
+        <v>4973.316844983728</v>
       </c>
       <c r="S29">
-        <v>0.02051697918390765</v>
+        <v>0.0241074196235191</v>
       </c>
       <c r="T29">
-        <v>0.02051697918390765</v>
+        <v>0.02860609555318335</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>17.6140412473364</v>
+        <v>23.64038533333333</v>
       </c>
       <c r="H30">
-        <v>17.6140412473364</v>
+        <v>70.921156</v>
       </c>
       <c r="I30">
-        <v>0.1027801050902063</v>
+        <v>0.1219248350560686</v>
       </c>
       <c r="J30">
-        <v>0.1027801050902063</v>
+        <v>0.1279996332036458</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.14058632203313</v>
+        <v>1.272071333333334</v>
       </c>
       <c r="N30">
-        <v>1.14058632203313</v>
+        <v>3.816214</v>
       </c>
       <c r="O30">
-        <v>0.00995972249007243</v>
+        <v>0.01076021498555478</v>
       </c>
       <c r="P30">
-        <v>0.00995972249007243</v>
+        <v>0.01216220326991628</v>
       </c>
       <c r="Q30">
-        <v>20.09033452243927</v>
+        <v>30.07225649148711</v>
       </c>
       <c r="R30">
-        <v>20.09033452243927</v>
+        <v>270.650308423384</v>
       </c>
       <c r="S30">
-        <v>0.001023661324198936</v>
+        <v>0.001311937437281604</v>
       </c>
       <c r="T30">
-        <v>0.001023661324198936</v>
+        <v>0.001556757557497465</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>17.6140412473364</v>
+        <v>23.64038533333333</v>
       </c>
       <c r="H31">
-        <v>17.6140412473364</v>
+        <v>70.921156</v>
       </c>
       <c r="I31">
-        <v>0.1027801050902063</v>
+        <v>0.1219248350560686</v>
       </c>
       <c r="J31">
-        <v>0.1027801050902063</v>
+        <v>0.1279996332036458</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>39.5464332042761</v>
+        <v>40.4313585</v>
       </c>
       <c r="N31">
-        <v>39.5464332042761</v>
+        <v>80.862717</v>
       </c>
       <c r="O31">
-        <v>0.3453237099009637</v>
+        <v>0.3420013471084464</v>
       </c>
       <c r="P31">
-        <v>0.3453237099009637</v>
+        <v>0.2577079799800835</v>
       </c>
       <c r="Q31">
-        <v>696.572505645153</v>
+        <v>955.812894490142</v>
       </c>
       <c r="R31">
-        <v>696.572505645153</v>
+        <v>5734.877366940852</v>
       </c>
       <c r="S31">
-        <v>0.03549240719376098</v>
+        <v>0.04169845783515059</v>
       </c>
       <c r="T31">
-        <v>0.03549240719376098</v>
+        <v>0.03298652691110319</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>11.1917828093276</v>
+        <v>11.9753255</v>
       </c>
       <c r="H32">
-        <v>11.1917828093276</v>
+        <v>23.950651</v>
       </c>
       <c r="I32">
-        <v>0.06530543429171333</v>
+        <v>0.06176251214786597</v>
       </c>
       <c r="J32">
-        <v>0.06530543429171333</v>
+        <v>0.04322651682367576</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.209166423063072</v>
+        <v>0.451749</v>
       </c>
       <c r="N32">
-        <v>0.209166423063072</v>
+        <v>0.903498</v>
       </c>
       <c r="O32">
-        <v>0.00182646371230881</v>
+        <v>0.003821260830374857</v>
       </c>
       <c r="P32">
-        <v>0.00182646371230881</v>
+        <v>0.00287943137621811</v>
       </c>
       <c r="Q32">
-        <v>2.340945177925833</v>
+        <v>5.4098413192995</v>
       </c>
       <c r="R32">
-        <v>2.340945177925833</v>
+        <v>21.639365277198</v>
       </c>
       <c r="S32">
-        <v>0.0001192780059503818</v>
+        <v>0.0002360106684561915</v>
       </c>
       <c r="T32">
-        <v>0.0001192780059503818</v>
+        <v>0.000124467788826712</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>11.1917828093276</v>
+        <v>11.9753255</v>
       </c>
       <c r="H33">
-        <v>11.1917828093276</v>
+        <v>23.950651</v>
       </c>
       <c r="I33">
-        <v>0.06530543429171333</v>
+        <v>0.06176251214786597</v>
       </c>
       <c r="J33">
-        <v>0.06530543429171333</v>
+        <v>0.04322651682367576</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>27.9188300643417</v>
+        <v>29.738655</v>
       </c>
       <c r="N33">
-        <v>27.9188300643417</v>
+        <v>89.21596500000001</v>
       </c>
       <c r="O33">
-        <v>0.243790228163246</v>
+        <v>0.2515537555136401</v>
       </c>
       <c r="P33">
-        <v>0.243790228163246</v>
+        <v>0.2843296264967678</v>
       </c>
       <c r="Q33">
-        <v>312.4614823706381</v>
+        <v>356.1300735572026</v>
       </c>
       <c r="R33">
-        <v>312.4614823706381</v>
+        <v>2136.780441343215</v>
       </c>
       <c r="S33">
-        <v>0.01592082672627666</v>
+        <v>0.0155365918807525</v>
       </c>
       <c r="T33">
-        <v>0.01592082672627666</v>
+        <v>0.01229057938323198</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>11.1917828093276</v>
+        <v>11.9753255</v>
       </c>
       <c r="H34">
-        <v>11.1917828093276</v>
+        <v>23.950651</v>
       </c>
       <c r="I34">
-        <v>0.06530543429171333</v>
+        <v>0.06176251214786597</v>
       </c>
       <c r="J34">
-        <v>0.06530543429171333</v>
+        <v>0.04322651682367576</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>22.8443971128282</v>
+        <v>22.95118433333333</v>
       </c>
       <c r="N34">
-        <v>22.8443971128282</v>
+        <v>68.85355300000001</v>
       </c>
       <c r="O34">
-        <v>0.199479733626134</v>
+        <v>0.194139802641909</v>
       </c>
       <c r="P34">
-        <v>0.199479733626134</v>
+        <v>0.2194349969477482</v>
       </c>
       <c r="Q34">
-        <v>255.6695308968037</v>
+        <v>274.8479030021672</v>
       </c>
       <c r="R34">
-        <v>255.6695308968037</v>
+        <v>1649.087418013003</v>
       </c>
       <c r="S34">
-        <v>0.01302711063684997</v>
+        <v>0.01199056191905521</v>
       </c>
       <c r="T34">
-        <v>0.01302711063684997</v>
+        <v>0.009485410587265075</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>11.1917828093276</v>
+        <v>11.9753255</v>
       </c>
       <c r="H35">
-        <v>11.1917828093276</v>
+        <v>23.950651</v>
       </c>
       <c r="I35">
-        <v>0.06530543429171333</v>
+        <v>0.06176251214786597</v>
       </c>
       <c r="J35">
-        <v>0.06530543429171333</v>
+        <v>0.04322651682367576</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>22.8604766766159</v>
+        <v>23.37486266666667</v>
       </c>
       <c r="N35">
-        <v>22.8604766766159</v>
+        <v>70.124588</v>
       </c>
       <c r="O35">
-        <v>0.1996201421072751</v>
+        <v>0.1977236189200749</v>
       </c>
       <c r="P35">
-        <v>0.1996201421072751</v>
+        <v>0.2234857619292659</v>
       </c>
       <c r="Q35">
-        <v>255.8494898823844</v>
+        <v>279.9215889511314</v>
       </c>
       <c r="R35">
-        <v>255.8494898823844</v>
+        <v>1679.529533706788</v>
       </c>
       <c r="S35">
-        <v>0.01303628007368913</v>
+        <v>0.01221190741547115</v>
       </c>
       <c r="T35">
-        <v>0.01303628007368913</v>
+        <v>0.009660511047887409</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>11.1917828093276</v>
+        <v>11.9753255</v>
       </c>
       <c r="H36">
-        <v>11.1917828093276</v>
+        <v>23.950651</v>
       </c>
       <c r="I36">
-        <v>0.06530543429171333</v>
+        <v>0.06176251214786597</v>
       </c>
       <c r="J36">
-        <v>0.06530543429171333</v>
+        <v>0.04322651682367576</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>1.14058632203313</v>
+        <v>1.272071333333334</v>
       </c>
       <c r="N36">
-        <v>1.14058632203313</v>
+        <v>3.816214</v>
       </c>
       <c r="O36">
-        <v>0.00995972249007243</v>
+        <v>0.01076021498555478</v>
       </c>
       <c r="P36">
-        <v>0.00995972249007243</v>
+        <v>0.01216220326991628</v>
       </c>
       <c r="Q36">
-        <v>12.76519439148458</v>
+        <v>15.23346827588567</v>
       </c>
       <c r="R36">
-        <v>12.76519439148458</v>
+        <v>91.40080965531401</v>
       </c>
       <c r="S36">
-        <v>0.0006504240026391245</v>
+        <v>0.0006645779087589765</v>
       </c>
       <c r="T36">
-        <v>0.0006504240026391245</v>
+        <v>0.0005257296842600004</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>11.1917828093276</v>
+        <v>11.9753255</v>
       </c>
       <c r="H37">
-        <v>11.1917828093276</v>
+        <v>23.950651</v>
       </c>
       <c r="I37">
-        <v>0.06530543429171333</v>
+        <v>0.06176251214786597</v>
       </c>
       <c r="J37">
-        <v>0.06530543429171333</v>
+        <v>0.04322651682367576</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>39.5464332042761</v>
+        <v>40.4313585</v>
       </c>
       <c r="N37">
-        <v>39.5464332042761</v>
+        <v>80.862717</v>
       </c>
       <c r="O37">
-        <v>0.3453237099009637</v>
+        <v>0.3420013471084464</v>
       </c>
       <c r="P37">
-        <v>0.3453237099009637</v>
+        <v>0.2577079799800835</v>
       </c>
       <c r="Q37">
-        <v>442.5950913058394</v>
+        <v>484.1786784446918</v>
       </c>
       <c r="R37">
-        <v>442.5950913058394</v>
+        <v>1936.714713778767</v>
       </c>
       <c r="S37">
-        <v>0.02255151484630806</v>
+        <v>0.02112286235537195</v>
       </c>
       <c r="T37">
-        <v>0.02255151484630806</v>
+        <v>0.01113981833220458</v>
       </c>
     </row>
   </sheetData>
